--- a/medicine/Mort/Cimetière_de_Hietzing/Cimetière_de_Hietzing.xlsx
+++ b/medicine/Mort/Cimetière_de_Hietzing/Cimetière_de_Hietzing.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hietzing</t>
+          <t>Cimetière_de_Hietzing</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Hietzing (Hietzinger Friedhof), officiellement dénommé Friedhof Hietzing, est le cimetière principal de Hietzing, le treizième arrondissement de Vienne en Autriche. Le cimetière a été créé en 1892.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hietzing</t>
+          <t>Cimetière_de_Hietzing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière, qui occupe une superficie de 97 175 mètres carrés et comprend 11 207 sépultures, est situé à l'extrémité sud d'Alt-Hietzing, le quartier central de Hietzing, et jouxte l'enceinte sud-ouest du château et le parc de Schönbrunn, l'ancienne résidence d'été impériale.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hietzing</t>
+          <t>Cimetière_de_Hietzing</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Hietzing</t>
+          <t>Cimetière_de_Hietzing</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,12 +584,48 @@
           <t>Personnalités inhumées au cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Gustav Klimt[1]
-Koloman (Kolo) Moser (1868-1918)
-Liste plus complète
-Personnalités inhumées au cimetière de Hietzing.</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Gustav Klimt
+Koloman (Kolo) Moser (1868-1918)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cimetière_de_Hietzing</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cimeti%C3%A8re_de_Hietzing</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste plus complète</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Personnalités inhumées au cimetière de Hietzing.</t>
         </is>
       </c>
     </row>
